--- a/Word_combination.xlsx
+++ b/Word_combination.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hieudt/VNU/Thesis/Thesis-Data_Science-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3BCDED-6402-E04E-BBF3-1293C0D178A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B8DF06-28D0-024F-B943-CCF8FFF8E17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20780" xr2:uid="{44FFCFA7-9F04-BE4E-8055-C7A13F944295}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$66</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>index</t>
   </si>
@@ -235,6 +238,69 @@
   </si>
   <si>
     <t>Uỷ ban kiểm tra, truy tố, gây thất thu, ngân sách nhà nước</t>
+  </si>
+  <si>
+    <t>Viện KSND , truy tố , tham nhũng</t>
+  </si>
+  <si>
+    <t>Viện KSND , truy tố , gây thất thoát , tài sản nhà nước</t>
+  </si>
+  <si>
+    <t>Viện KSND , truy tố , vi phạm quy định , gây hậu quả nghiêm trọng</t>
+  </si>
+  <si>
+    <t>Viện KSND , truy tố , lợi dụng chức vụ quyền hạn</t>
+  </si>
+  <si>
+    <t>Viện KSND , truy tố , hối lộ</t>
+  </si>
+  <si>
+    <t>Viện KSND , tham ô tài sản, truy tố</t>
+  </si>
+  <si>
+    <t>Viện KSND , nhận hối lộ, truy tố</t>
+  </si>
+  <si>
+    <t>Viện KSND , lạm dụng chức vụ quyền hạn, truy tố</t>
+  </si>
+  <si>
+    <t>Viện KSND , giả mạo trong công tác vì vụ lợi, truy tố</t>
+  </si>
+  <si>
+    <t>Viện KSND , nhũng nhiễu vì vụ lợi, truy tố</t>
+  </si>
+  <si>
+    <t>Viện KSND , khởi tố , tham nhũng</t>
+  </si>
+  <si>
+    <t>Viện KSND , khởi tố , gây thất thoát , tài sản nhà nước</t>
+  </si>
+  <si>
+    <t>Viện KSND , khởi tố , vi phạm quy định , gây hậu quả nghiêm trọng</t>
+  </si>
+  <si>
+    <t>Viện KSND , khởi tố , lợi dụng chức vụ quyền hạn</t>
+  </si>
+  <si>
+    <t>Viện KSND , khởi tố , hối lộ</t>
+  </si>
+  <si>
+    <t>Viện KSND , tham ô tài sản, khởi tố</t>
+  </si>
+  <si>
+    <t>Viện KSND , nhận hối lộ, khởi tố</t>
+  </si>
+  <si>
+    <t>Viện KSND , lạm dụng chức vụ quyền hạn, khởi tố</t>
+  </si>
+  <si>
+    <t>Viện KSND , giả mạo trong công tác vì vụ lợi, khởi tố</t>
+  </si>
+  <si>
+    <t>Viện KSND , nhũng nhiễu vì vụ lợi, khởi tố</t>
+  </si>
+  <si>
+    <t>Viện KSND, truy tố, gây thất thu, ngân sách nhà nước</t>
   </si>
 </sst>
 </file>
@@ -600,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7750333D-8986-5541-8801-0BED51A06FEB}">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,7 +707,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A66" si="0">1+A3</f>
+        <f t="shared" ref="A4:A67" si="0">1+A3</f>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1207,7 +1273,193 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="2"/>
+      <c r="A67" s="1">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <f t="shared" ref="A68:A87" si="1">1+A67</f>
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
